--- a/2023/south-korea_k-league-1_2023.xlsx
+++ b/2023/south-korea_k-league-1_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V192"/>
+  <dimension ref="A1:V198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -849,22 +849,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Pohang</t>
+          <t>Jeju Utd</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Daegu</t>
+          <t>Suwon FC</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1.93</v>
+        <v>1.79</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -872,48 +872,48 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>2.28</v>
+        <v>1.78</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
+          <t>26/02/2023 05:58</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>12/02/2023 08:49</t>
+        </is>
+      </c>
+      <c r="P5" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>26/02/2023 05:58</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>12/02/2023 08:49</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
           <t>26/02/2023 05:59</t>
         </is>
       </c>
-      <c r="N5" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>12/02/2023 08:49</t>
-        </is>
-      </c>
-      <c r="P5" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>26/02/2023 05:59</t>
-        </is>
-      </c>
-      <c r="R5" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>12/02/2023 08:49</t>
-        </is>
-      </c>
-      <c r="T5" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>26/02/2023 05:59</t>
-        </is>
-      </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-korea/k-league-1/pohang-daegu/Eg9glct2/</t>
+          <t>https://www.betexplorer.com/football/south-korea/k-league-1/jeju-utd-suwon-fc/SdcyDtJ2/</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Jeju Utd</t>
+          <t>Pohang</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Suwon FC</t>
+          <t>Daegu</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>1.79</v>
+        <v>1.93</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1.78</v>
+        <v>2.28</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>26/02/2023 05:58</t>
+          <t>26/02/2023 05:59</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.59</v>
+        <v>3.58</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.81</v>
+        <v>3.43</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>26/02/2023 05:58</t>
+          <t>26/02/2023 05:59</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>4.92</v>
+        <v>4.11</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>4.88</v>
+        <v>3.35</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-korea/k-league-1/jeju-utd-suwon-fc/SdcyDtJ2/</t>
+          <t>https://www.betexplorer.com/football/south-korea/k-league-1/pohang-daegu/Eg9glct2/</t>
         </is>
       </c>
     </row>
@@ -1125,71 +1125,71 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Suwon FC</t>
+          <t>Incheon</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Pohang</t>
+          <t>Daejeon</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J8" t="n">
-        <v>3.17</v>
+        <v>2.5</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>26/02/2023 06:12</t>
+          <t>26/02/2023 16:12</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>3.38</v>
+        <v>2.44</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
+          <t>04/03/2023 05:52</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>26/02/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>04/03/2023 05:25</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>26/02/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
           <t>04/03/2023 05:55</t>
         </is>
       </c>
-      <c r="N8" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>26/02/2023 06:12</t>
-        </is>
-      </c>
-      <c r="P8" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>04/03/2023 05:46</t>
-        </is>
-      </c>
-      <c r="R8" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>26/02/2023 06:12</t>
-        </is>
-      </c>
-      <c r="T8" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>04/03/2023 05:55</t>
-        </is>
-      </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-korea/k-league-1/suwon-fc-pohang/zuOMuWh6/</t>
+          <t>https://www.betexplorer.com/football/south-korea/k-league-1/incheon-daejeon/tIOItCw0/</t>
         </is>
       </c>
     </row>
@@ -1217,62 +1217,62 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Incheon</t>
+          <t>Suwon FC</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Daejeon</t>
+          <t>Pohang</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
-        <v>2.5</v>
+        <v>3.17</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>26/02/2023 16:12</t>
+          <t>26/02/2023 06:12</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>2.44</v>
+        <v>3.38</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>04/03/2023 05:52</t>
+          <t>04/03/2023 05:55</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>26/02/2023 16:12</t>
+          <t>26/02/2023 06:12</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3.25</v>
+        <v>3.53</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>04/03/2023 05:25</t>
+          <t>04/03/2023 05:46</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>3.02</v>
+        <v>2.32</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>26/02/2023 16:12</t>
+          <t>26/02/2023 06:12</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>3.23</v>
+        <v>2.23</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-korea/k-league-1/incheon-daejeon/tIOItCw0/</t>
+          <t>https://www.betexplorer.com/football/south-korea/k-league-1/suwon-fc-pohang/zuOMuWh6/</t>
         </is>
       </c>
     </row>
@@ -2229,30 +2229,30 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Pohang</t>
+          <t>Gwangju FC</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Gangwon</t>
+          <t>Incheon</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>2.01</v>
+        <v>2.76</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>11/03/2023 08:42</t>
+          <t>12/03/2023 16:12</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>1.91</v>
+        <v>3.08</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -2260,40 +2260,40 @@
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.54</v>
+        <v>3.32</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>11/03/2023 08:42</t>
+          <t>12/03/2023 16:12</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.43</v>
+        <v>3.22</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>18/03/2023 05:56</t>
+          <t>18/03/2023 05:58</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>3.97</v>
+        <v>2.75</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>11/03/2023 08:42</t>
+          <t>12/03/2023 16:12</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>4.69</v>
+        <v>2.55</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>18/03/2023 05:56</t>
+          <t>18/03/2023 05:58</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-korea/k-league-1/pohang-gangwon/vyDAvsET/</t>
+          <t>https://www.betexplorer.com/football/south-korea/k-league-1/gwangju-fc-incheon/dGaxz1Mp/</t>
         </is>
       </c>
     </row>
@@ -2321,30 +2321,30 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Gwangju FC</t>
+          <t>Pohang</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Incheon</t>
+          <t>Gangwon</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>2.76</v>
+        <v>2.01</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>12/03/2023 16:12</t>
+          <t>11/03/2023 08:42</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>3.08</v>
+        <v>1.91</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2352,40 +2352,40 @@
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.32</v>
+        <v>3.54</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>12/03/2023 16:12</t>
+          <t>11/03/2023 08:42</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.22</v>
+        <v>3.43</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>18/03/2023 05:58</t>
+          <t>18/03/2023 05:56</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>2.75</v>
+        <v>3.97</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>12/03/2023 16:12</t>
+          <t>11/03/2023 08:42</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>2.55</v>
+        <v>4.69</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>18/03/2023 05:58</t>
+          <t>18/03/2023 05:56</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-korea/k-league-1/gwangju-fc-incheon/dGaxz1Mp/</t>
+          <t>https://www.betexplorer.com/football/south-korea/k-league-1/pohang-gangwon/vyDAvsET/</t>
         </is>
       </c>
     </row>
@@ -2505,30 +2505,30 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Suwon Bluewings</t>
+          <t>Daegu</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Daejeon</t>
+          <t>Jeonbuk</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>2.26</v>
+        <v>3.03</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>12/03/2023 16:13</t>
+          <t>12/03/2023 08:42</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.24</v>
+        <v>4.22</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -2536,40 +2536,40 @@
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.36</v>
+        <v>3.44</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>12/03/2023 16:13</t>
+          <t>12/03/2023 08:42</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
+          <t>19/03/2023 05:58</t>
+        </is>
+      </c>
+      <c r="R23" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>12/03/2023 08:42</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
           <t>19/03/2023 05:59</t>
         </is>
       </c>
-      <c r="R23" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>12/03/2023 16:13</t>
-        </is>
-      </c>
-      <c r="T23" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>19/03/2023 05:59</t>
-        </is>
-      </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-korea/k-league-1/suwon-bluewings-daejeon/jFSQtXfc/</t>
+          <t>https://www.betexplorer.com/football/south-korea/k-league-1/daegu-jeonbuk/COTMsDui/</t>
         </is>
       </c>
     </row>
@@ -2597,30 +2597,30 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Daegu</t>
+          <t>Suwon Bluewings</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Jeonbuk</t>
+          <t>Daejeon</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J24" t="n">
-        <v>3.03</v>
+        <v>2.26</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>12/03/2023 08:42</t>
+          <t>12/03/2023 16:13</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>4.22</v>
+        <v>2.24</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -2628,31 +2628,31 @@
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.44</v>
+        <v>3.36</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>12/03/2023 08:42</t>
+          <t>12/03/2023 16:13</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>19/03/2023 05:58</t>
+          <t>19/03/2023 05:59</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>2.43</v>
+        <v>3.35</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>12/03/2023 08:42</t>
+          <t>12/03/2023 16:13</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>1.97</v>
+        <v>3.52</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-korea/k-league-1/daegu-jeonbuk/COTMsDui/</t>
+          <t>https://www.betexplorer.com/football/south-korea/k-league-1/suwon-bluewings-daejeon/jFSQtXfc/</t>
         </is>
       </c>
     </row>
@@ -4437,71 +4437,71 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Daegu</t>
+          <t>Ulsan Hyundai</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Daejeon</t>
+          <t>Pohang</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J44" t="n">
-        <v>2.31</v>
+        <v>1.92</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>17/04/2023 04:11</t>
+          <t>16/04/2023 09:42</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.58</v>
+        <v>2.04</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>22/04/2023 09:29</t>
+          <t>22/04/2023 09:21</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.48</v>
+        <v>3.69</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>17/04/2023 04:11</t>
+          <t>16/04/2023 09:42</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.44</v>
+        <v>3.3</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>22/04/2023 09:29</t>
+          <t>22/04/2023 09:27</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>3.25</v>
+        <v>4.15</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>17/04/2023 04:11</t>
+          <t>16/04/2023 09:42</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.86</v>
+        <v>4.26</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>22/04/2023 09:28</t>
+          <t>22/04/2023 09:27</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-korea/k-league-1/daegu-daejeon/hxnn57wF/</t>
+          <t>https://www.betexplorer.com/football/south-korea/k-league-1/ulsan-hyundai-pohang/6ujj4RhL/</t>
         </is>
       </c>
     </row>
@@ -4529,71 +4529,71 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Ulsan Hyundai</t>
+          <t>Daegu</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Pohang</t>
+          <t>Daejeon</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>1.92</v>
+        <v>2.31</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>16/04/2023 09:42</t>
+          <t>17/04/2023 04:11</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.04</v>
+        <v>2.58</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>22/04/2023 09:21</t>
+          <t>22/04/2023 09:29</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.69</v>
+        <v>3.48</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>16/04/2023 09:42</t>
+          <t>17/04/2023 04:11</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.3</v>
+        <v>3.44</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>22/04/2023 09:27</t>
+          <t>22/04/2023 09:29</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>4.15</v>
+        <v>3.25</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>16/04/2023 09:42</t>
+          <t>17/04/2023 04:11</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>4.26</v>
+        <v>2.86</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>22/04/2023 09:27</t>
+          <t>22/04/2023 09:28</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-korea/k-league-1/ulsan-hyundai-pohang/6ujj4RhL/</t>
+          <t>https://www.betexplorer.com/football/south-korea/k-league-1/daegu-daejeon/hxnn57wF/</t>
         </is>
       </c>
     </row>
@@ -6829,62 +6829,62 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Suwon Bluewings</t>
+          <t>Jeju Utd</t>
         </is>
       </c>
       <c r="G70" t="n">
+        <v>2</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Incheon</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>Jeonbuk</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
-        <v>3</v>
-      </c>
       <c r="J70" t="n">
-        <v>2.96</v>
+        <v>2.19</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>05/05/2023 09:42</t>
+          <t>06/05/2023 07:12</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>3.2</v>
+        <v>2.69</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
+          <t>10/05/2023 12:28</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>06/05/2023 07:12</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
           <t>10/05/2023 12:29</t>
         </is>
       </c>
-      <c r="N70" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>05/05/2023 09:42</t>
-        </is>
-      </c>
-      <c r="P70" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="Q70" t="inlineStr">
-        <is>
-          <t>10/05/2023 12:29</t>
-        </is>
-      </c>
       <c r="R70" t="n">
-        <v>2.47</v>
+        <v>3.47</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>05/05/2023 09:42</t>
+          <t>06/05/2023 07:12</t>
         </is>
       </c>
       <c r="T70" t="n">
-        <v>2.52</v>
+        <v>2.91</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
@@ -6893,7 +6893,7 @@
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-korea/k-league-1/suwon-bluewings-jeonbuk/t09d7i5U/</t>
+          <t>https://www.betexplorer.com/football/south-korea/k-league-1/jeju-utd-incheon/29Ah8XkO/</t>
         </is>
       </c>
     </row>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Jeju Utd</t>
+          <t>Daejeon</t>
         </is>
       </c>
       <c r="G71" t="n">
@@ -6929,38 +6929,38 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Incheon</t>
+          <t>Suwon FC</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>2.19</v>
+        <v>1.98</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>06/05/2023 07:12</t>
+          <t>06/05/2023 12:13</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>2.69</v>
+        <v>2.08</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>10/05/2023 12:28</t>
+          <t>10/05/2023 12:19</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.4</v>
+        <v>3.76</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>06/05/2023 07:12</t>
+          <t>06/05/2023 12:13</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.21</v>
+        <v>3.95</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6968,24 +6968,24 @@
         </is>
       </c>
       <c r="R71" t="n">
-        <v>3.47</v>
+        <v>3.71</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>06/05/2023 07:12</t>
+          <t>06/05/2023 12:13</t>
         </is>
       </c>
       <c r="T71" t="n">
-        <v>2.91</v>
+        <v>3.38</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>10/05/2023 12:28</t>
+          <t>10/05/2023 12:19</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-korea/k-league-1/jeju-utd-incheon/29Ah8XkO/</t>
+          <t>https://www.betexplorer.com/football/south-korea/k-league-1/daejeon-suwon-fc/hYk2Szyt/</t>
         </is>
       </c>
     </row>
@@ -7013,46 +7013,46 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Daejeon</t>
+          <t>Suwon Bluewings</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Suwon FC</t>
+          <t>Jeonbuk</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J72" t="n">
-        <v>1.98</v>
+        <v>2.96</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>06/05/2023 12:13</t>
+          <t>05/05/2023 09:42</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2.08</v>
+        <v>3.2</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>10/05/2023 12:19</t>
+          <t>10/05/2023 12:29</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.76</v>
+        <v>3.38</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>06/05/2023 12:13</t>
+          <t>05/05/2023 09:42</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.95</v>
+        <v>3.14</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -7060,24 +7060,24 @@
         </is>
       </c>
       <c r="R72" t="n">
-        <v>3.71</v>
+        <v>2.47</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>06/05/2023 12:13</t>
+          <t>05/05/2023 09:42</t>
         </is>
       </c>
       <c r="T72" t="n">
-        <v>3.38</v>
+        <v>2.52</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>10/05/2023 12:19</t>
+          <t>10/05/2023 12:28</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-korea/k-league-1/daejeon-suwon-fc/hYk2Szyt/</t>
+          <t>https://www.betexplorer.com/football/south-korea/k-league-1/suwon-bluewings-jeonbuk/t09d7i5U/</t>
         </is>
       </c>
     </row>
@@ -9497,71 +9497,71 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Jeonbuk</t>
+          <t>Gwangju FC</t>
         </is>
       </c>
       <c r="G99" t="n">
+        <v>2</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Suwon Bluewings</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
         <v>1</v>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>Daegu</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
       <c r="J99" t="n">
-        <v>1.74</v>
+        <v>1.95</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>04/06/2023 12:12</t>
+          <t>03/06/2023 12:42</t>
         </is>
       </c>
       <c r="L99" t="n">
-        <v>2.19</v>
+        <v>1.93</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>07/06/2023 11:56</t>
+          <t>07/06/2023 11:59</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.82</v>
+        <v>3.54</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>04/06/2023 12:12</t>
+          <t>03/06/2023 12:42</t>
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.46</v>
+        <v>3.59</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>07/06/2023 11:56</t>
+          <t>07/06/2023 11:59</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>4.87</v>
+        <v>4.19</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
-          <t>04/06/2023 12:12</t>
+          <t>03/06/2023 12:42</t>
         </is>
       </c>
       <c r="T99" t="n">
-        <v>3.55</v>
+        <v>4.29</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>07/06/2023 11:56</t>
+          <t>07/06/2023 11:59</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-korea/k-league-1/jeonbuk-daegu/GhjKUK2e/</t>
+          <t>https://www.betexplorer.com/football/south-korea/k-league-1/gwangju-fc-suwon-bluewings/AFkOTvI1/</t>
         </is>
       </c>
     </row>
@@ -9589,71 +9589,71 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Gwangju FC</t>
+          <t>Jeonbuk</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Suwon Bluewings</t>
+          <t>Daegu</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>1.95</v>
+        <v>1.74</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>03/06/2023 12:42</t>
+          <t>04/06/2023 12:12</t>
         </is>
       </c>
       <c r="L100" t="n">
-        <v>1.93</v>
+        <v>2.19</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>07/06/2023 11:59</t>
+          <t>07/06/2023 11:56</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.54</v>
+        <v>3.82</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>03/06/2023 12:42</t>
+          <t>04/06/2023 12:12</t>
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3.59</v>
+        <v>3.46</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>07/06/2023 11:59</t>
+          <t>07/06/2023 11:56</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>4.19</v>
+        <v>4.87</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
-          <t>03/06/2023 12:42</t>
+          <t>04/06/2023 12:12</t>
         </is>
       </c>
       <c r="T100" t="n">
-        <v>4.29</v>
+        <v>3.55</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>07/06/2023 11:59</t>
+          <t>07/06/2023 11:56</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-korea/k-league-1/gwangju-fc-suwon-bluewings/AFkOTvI1/</t>
+          <t>https://www.betexplorer.com/football/south-korea/k-league-1/jeonbuk-daegu/GhjKUK2e/</t>
         </is>
       </c>
     </row>
@@ -9681,7 +9681,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Gangwon</t>
+          <t>Incheon</t>
         </is>
       </c>
       <c r="G101" t="n">
@@ -9689,63 +9689,63 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Daejeon</t>
+          <t>Seoul</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J101" t="n">
-        <v>2.36</v>
+        <v>2.64</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>04/06/2023 09:42</t>
+          <t>04/06/2023 12:12</t>
         </is>
       </c>
       <c r="L101" t="n">
-        <v>2.58</v>
+        <v>3.21</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>07/06/2023 12:29</t>
+          <t>07/06/2023 12:26</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>3.45</v>
+        <v>3.23</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>04/06/2023 09:42</t>
+          <t>04/06/2023 12:12</t>
         </is>
       </c>
       <c r="P101" t="n">
-        <v>3.36</v>
+        <v>3.41</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>07/06/2023 12:29</t>
+          <t>07/06/2023 12:24</t>
         </is>
       </c>
       <c r="R101" t="n">
-        <v>3.08</v>
+        <v>2.92</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
-          <t>04/06/2023 09:42</t>
+          <t>04/06/2023 12:12</t>
         </is>
       </c>
       <c r="T101" t="n">
-        <v>2.92</v>
+        <v>2.35</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>07/06/2023 12:29</t>
+          <t>07/06/2023 11:52</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-korea/k-league-1/gangwon-daejeon/lbf3irA8/</t>
+          <t>https://www.betexplorer.com/football/south-korea/k-league-1/incheon-seoul/l6lSSbX7/</t>
         </is>
       </c>
     </row>
@@ -9773,7 +9773,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Incheon</t>
+          <t>Gangwon</t>
         </is>
       </c>
       <c r="G102" t="n">
@@ -9781,63 +9781,63 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Seoul</t>
+          <t>Daejeon</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J102" t="n">
-        <v>2.64</v>
+        <v>2.36</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>04/06/2023 12:12</t>
+          <t>04/06/2023 09:42</t>
         </is>
       </c>
       <c r="L102" t="n">
-        <v>3.21</v>
+        <v>2.58</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>07/06/2023 12:26</t>
+          <t>07/06/2023 12:29</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>3.23</v>
+        <v>3.45</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>04/06/2023 12:12</t>
+          <t>04/06/2023 09:42</t>
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3.41</v>
+        <v>3.36</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>07/06/2023 12:24</t>
+          <t>07/06/2023 12:29</t>
         </is>
       </c>
       <c r="R102" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>04/06/2023 09:42</t>
+        </is>
+      </c>
+      <c r="T102" t="n">
         <v>2.92</v>
       </c>
-      <c r="S102" t="inlineStr">
-        <is>
-          <t>04/06/2023 12:12</t>
-        </is>
-      </c>
-      <c r="T102" t="n">
-        <v>2.35</v>
-      </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>07/06/2023 11:52</t>
+          <t>07/06/2023 12:29</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-korea/k-league-1/incheon-seoul/l6lSSbX7/</t>
+          <t>https://www.betexplorer.com/football/south-korea/k-league-1/gangwon-daejeon/lbf3irA8/</t>
         </is>
       </c>
     </row>
@@ -17225,22 +17225,22 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Gwangju FC</t>
+          <t>Suwon FC</t>
         </is>
       </c>
       <c r="G183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Jeonbuk</t>
+          <t>Ulsan Hyundai</t>
         </is>
       </c>
       <c r="I183" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J183" t="n">
-        <v>2.65</v>
+        <v>3.89</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -17248,15 +17248,15 @@
         </is>
       </c>
       <c r="L183" t="n">
-        <v>2.75</v>
+        <v>4.76</v>
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>24/09/2023 06:56</t>
+          <t>24/09/2023 06:59</t>
         </is>
       </c>
       <c r="N183" t="n">
-        <v>3.29</v>
+        <v>4.01</v>
       </c>
       <c r="O183" t="inlineStr">
         <is>
@@ -17264,15 +17264,15 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>3.24</v>
+        <v>4.39</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
-          <t>24/09/2023 06:55</t>
+          <t>24/09/2023 06:57</t>
         </is>
       </c>
       <c r="R183" t="n">
-        <v>2.86</v>
+        <v>1.9</v>
       </c>
       <c r="S183" t="inlineStr">
         <is>
@@ -17280,16 +17280,16 @@
         </is>
       </c>
       <c r="T183" t="n">
-        <v>2.82</v>
+        <v>1.68</v>
       </c>
       <c r="U183" t="inlineStr">
         <is>
-          <t>24/09/2023 06:56</t>
+          <t>24/09/2023 06:36</t>
         </is>
       </c>
       <c r="V183" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-korea/k-league-1/gwangju-fc-jeonbuk/hWtXXVPn/</t>
+          <t>https://www.betexplorer.com/football/south-korea/k-league-1/suwon-fc-ulsan-hyundai/b9sTYBAt/</t>
         </is>
       </c>
     </row>
@@ -17317,22 +17317,22 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Suwon FC</t>
+          <t>Gwangju FC</t>
         </is>
       </c>
       <c r="G184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Ulsan Hyundai</t>
+          <t>Jeonbuk</t>
         </is>
       </c>
       <c r="I184" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J184" t="n">
-        <v>3.89</v>
+        <v>2.65</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -17340,15 +17340,15 @@
         </is>
       </c>
       <c r="L184" t="n">
-        <v>4.76</v>
+        <v>2.75</v>
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>24/09/2023 06:59</t>
+          <t>24/09/2023 06:56</t>
         </is>
       </c>
       <c r="N184" t="n">
-        <v>4.01</v>
+        <v>3.29</v>
       </c>
       <c r="O184" t="inlineStr">
         <is>
@@ -17356,15 +17356,15 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>4.39</v>
+        <v>3.24</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
-          <t>24/09/2023 06:57</t>
+          <t>24/09/2023 06:55</t>
         </is>
       </c>
       <c r="R184" t="n">
-        <v>1.9</v>
+        <v>2.86</v>
       </c>
       <c r="S184" t="inlineStr">
         <is>
@@ -17372,16 +17372,16 @@
         </is>
       </c>
       <c r="T184" t="n">
-        <v>1.68</v>
+        <v>2.82</v>
       </c>
       <c r="U184" t="inlineStr">
         <is>
-          <t>24/09/2023 06:36</t>
+          <t>24/09/2023 06:56</t>
         </is>
       </c>
       <c r="V184" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-korea/k-league-1/suwon-fc-ulsan-hyundai/b9sTYBAt/</t>
+          <t>https://www.betexplorer.com/football/south-korea/k-league-1/gwangju-fc-jeonbuk/hWtXXVPn/</t>
         </is>
       </c>
     </row>
@@ -18118,6 +18118,558 @@
       <c r="V192" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/south-korea/k-league-1/jeju-utd-gwangju-fc/Y3H5nVvt/</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>south-korea</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>k-league-1</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E193" s="2" t="n">
+        <v>45207.33333333334</v>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Daegu</t>
+        </is>
+      </c>
+      <c r="G193" t="n">
+        <v>2</v>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Suwon FC</t>
+        </is>
+      </c>
+      <c r="I193" t="n">
+        <v>2</v>
+      </c>
+      <c r="J193" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>01/10/2023 07:13</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>08/10/2023 07:54</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>01/10/2023 07:13</t>
+        </is>
+      </c>
+      <c r="P193" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="Q193" t="inlineStr">
+        <is>
+          <t>08/10/2023 07:58</t>
+        </is>
+      </c>
+      <c r="R193" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="S193" t="inlineStr">
+        <is>
+          <t>01/10/2023 07:13</t>
+        </is>
+      </c>
+      <c r="T193" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="U193" t="inlineStr">
+        <is>
+          <t>08/10/2023 07:57</t>
+        </is>
+      </c>
+      <c r="V193" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/south-korea/k-league-1/daegu-suwon-fc/fJ5Ep99h/</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>south-korea</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>k-league-1</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E194" s="2" t="n">
+        <v>45207.33333333334</v>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Daejeon</t>
+        </is>
+      </c>
+      <c r="G194" t="n">
+        <v>1</v>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Jeju Utd</t>
+        </is>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>01/10/2023 08:43</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>08/10/2023 07:50</t>
+        </is>
+      </c>
+      <c r="N194" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>01/10/2023 08:43</t>
+        </is>
+      </c>
+      <c r="P194" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q194" t="inlineStr">
+        <is>
+          <t>08/10/2023 07:43</t>
+        </is>
+      </c>
+      <c r="R194" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="S194" t="inlineStr">
+        <is>
+          <t>01/10/2023 08:43</t>
+        </is>
+      </c>
+      <c r="T194" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="U194" t="inlineStr">
+        <is>
+          <t>08/10/2023 07:50</t>
+        </is>
+      </c>
+      <c r="V194" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/south-korea/k-league-1/daejeon-jeju-utd/bB2VtR8H/</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>south-korea</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>k-league-1</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E195" s="2" t="n">
+        <v>45207.33333333334</v>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Gwangju FC</t>
+        </is>
+      </c>
+      <c r="G195" t="n">
+        <v>1</v>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Gangwon</t>
+        </is>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>01/10/2023 08:43</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>08/10/2023 07:59</t>
+        </is>
+      </c>
+      <c r="N195" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>01/10/2023 08:43</t>
+        </is>
+      </c>
+      <c r="P195" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="Q195" t="inlineStr">
+        <is>
+          <t>08/10/2023 07:59</t>
+        </is>
+      </c>
+      <c r="R195" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="S195" t="inlineStr">
+        <is>
+          <t>01/10/2023 08:43</t>
+        </is>
+      </c>
+      <c r="T195" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="U195" t="inlineStr">
+        <is>
+          <t>08/10/2023 07:59</t>
+        </is>
+      </c>
+      <c r="V195" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/south-korea/k-league-1/gwangju-fc-gangwon/tz8Qs7gB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>south-korea</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>k-league-1</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E196" s="2" t="n">
+        <v>45207.33333333334</v>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Seoul</t>
+        </is>
+      </c>
+      <c r="G196" t="n">
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Jeonbuk</t>
+        </is>
+      </c>
+      <c r="I196" t="n">
+        <v>2</v>
+      </c>
+      <c r="J196" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>01/10/2023 07:13</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>08/10/2023 07:59</t>
+        </is>
+      </c>
+      <c r="N196" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>01/10/2023 07:13</t>
+        </is>
+      </c>
+      <c r="P196" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="Q196" t="inlineStr">
+        <is>
+          <t>08/10/2023 07:33</t>
+        </is>
+      </c>
+      <c r="R196" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="S196" t="inlineStr">
+        <is>
+          <t>01/10/2023 07:13</t>
+        </is>
+      </c>
+      <c r="T196" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U196" t="inlineStr">
+        <is>
+          <t>08/10/2023 07:59</t>
+        </is>
+      </c>
+      <c r="V196" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/south-korea/k-league-1/seoul-jeonbuk/8M9IqTOb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>south-korea</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>k-league-1</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E197" s="2" t="n">
+        <v>45207.33333333334</v>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Suwon Bluewings</t>
+        </is>
+      </c>
+      <c r="G197" t="n">
+        <v>1</v>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Pohang</t>
+        </is>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>01/10/2023 07:13</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>08/10/2023 07:52</t>
+        </is>
+      </c>
+      <c r="N197" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>01/10/2023 07:13</t>
+        </is>
+      </c>
+      <c r="P197" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q197" t="inlineStr">
+        <is>
+          <t>08/10/2023 07:50</t>
+        </is>
+      </c>
+      <c r="R197" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="S197" t="inlineStr">
+        <is>
+          <t>01/10/2023 07:13</t>
+        </is>
+      </c>
+      <c r="T197" t="n">
+        <v>2</v>
+      </c>
+      <c r="U197" t="inlineStr">
+        <is>
+          <t>08/10/2023 07:52</t>
+        </is>
+      </c>
+      <c r="V197" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/south-korea/k-league-1/suwon-bluewings-pohang/2q9Mrmv5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>south-korea</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>k-league-1</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E198" s="2" t="n">
+        <v>45207.33333333334</v>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Ulsan Hyundai</t>
+        </is>
+      </c>
+      <c r="G198" t="n">
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Incheon</t>
+        </is>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>01/10/2023 07:13</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>08/10/2023 07:41</t>
+        </is>
+      </c>
+      <c r="N198" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>01/10/2023 07:13</t>
+        </is>
+      </c>
+      <c r="P198" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="Q198" t="inlineStr">
+        <is>
+          <t>08/10/2023 07:58</t>
+        </is>
+      </c>
+      <c r="R198" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="S198" t="inlineStr">
+        <is>
+          <t>01/10/2023 07:13</t>
+        </is>
+      </c>
+      <c r="T198" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="U198" t="inlineStr">
+        <is>
+          <t>08/10/2023 07:58</t>
+        </is>
+      </c>
+      <c r="V198" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/south-korea/k-league-1/ulsan-hyundai-incheon/CfG9okfn/</t>
         </is>
       </c>
     </row>
